--- a/create cards for OZON WB XLS/data to create/Data_to_create8.xlsx
+++ b/create cards for OZON WB XLS/data to create/Data_to_create8.xlsx
@@ -1522,7 +1522,7 @@
     <t xml:space="preserve">Punky Monkey</t>
   </si>
   <si>
-    <t xml:space="preserve">OZN1463857418 </t>
+    <t xml:space="preserve">OZN1463857418</t>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
@@ -2215,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P41" activeCellId="0" sqref="P41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
